--- a/DBA/Reportes BI/2021/Matriz de Clientes/parametros_servidor.xlsx
+++ b/DBA/Reportes BI/2021/Matriz de Clientes/parametros_servidor.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
   <si>
     <t xml:space="preserve">Parametros servidor</t>
   </si>
@@ -37,46 +37,43 @@
     <t xml:space="preserve">localhost</t>
   </si>
   <si>
+    <t xml:space="preserve">False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">postgres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galopante01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facoep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">workdirectory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:/Users/User/Desktop/FACOEP/DBA/Reportes BI/2021/Efectores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.31.24.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facoep2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E:/Personales/Sistemas/Agustin/Reportes BI/2021/Cobranzas/Versión 7</t>
+  </si>
+  <si>
     <t xml:space="preserve">True</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">postgres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Galopante01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facoep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">workdirectory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:/Users/User/Desktop/FACOEP/DBA/Reportes BI/2021/Efectores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">False</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.31.24.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">facoep2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E:/Personales/Sistemas/Agustin/Reportes BI/2021/Cobranzas/Versión 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facoep </t>
   </si>
   <si>
     <t xml:space="preserve">facoep1</t>
@@ -229,10 +226,10 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="88.57"/>
@@ -301,7 +298,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -309,10 +306,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -323,7 +320,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -331,10 +328,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -342,10 +339,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -353,10 +350,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -364,10 +361,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -375,10 +372,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -389,7 +386,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -397,10 +394,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -411,7 +408,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
